--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3B46A-CE80-4DAF-8043-307300C20AA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534A25A-53E3-4164-9482-2F11DC51F5B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9"/>
+      <selection pane="topRight" activeCell="K10" sqref="F6:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
       <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534A25A-53E3-4164-9482-2F11DC51F5B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972312D-FDC4-40DE-9124-5CC38B0AB29D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Testen</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Crud: prijzen</t>
   </si>
   <si>
-    <t>Crud type vrachtwagen</t>
-  </si>
-  <si>
     <t>OrderUI</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>: chauffeur</t>
+  </si>
+  <si>
+    <t>Encrypt/decrypt</t>
+  </si>
+  <si>
+    <t>Crud: pallets</t>
   </si>
 </sst>
 </file>
@@ -622,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="F6:K10"/>
+      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +924,7 @@
       <c r="AG6" s="6"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -960,7 +963,7 @@
       <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -999,7 +1002,7 @@
       <c r="AG8" s="6"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1156,11 +1159,9 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1195,7 +1196,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
@@ -1240,7 +1241,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1328,7 +1329,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1457,7 +1458,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1500,7 +1501,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>2</v>
@@ -1545,7 +1546,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -1590,7 +1591,7 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
@@ -1632,7 +1633,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>2</v>
@@ -1673,7 +1674,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>2</v>
@@ -1697,8 +1698,8 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -1709,11 +1710,12 @@
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
-      <c r="AI25" s="11"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>7</v>
+      <c r="A26" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>2</v>
@@ -1753,7 +1755,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>2</v>
@@ -1778,8 +1780,8 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -1792,10 +1794,10 @@
       <c r="AI27" s="11"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
@@ -1824,38 +1826,50 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AI28" s="11"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
+      <c r="A29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1878,10 +1892,38 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972312D-FDC4-40DE-9124-5CC38B0AB29D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0584F5D-6DA9-40FE-A14F-20FA40A9A960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Testen</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Crud: manager</t>
   </si>
   <si>
-    <t>Crud: orders</t>
-  </si>
-  <si>
-    <t>Crud: vrachtwagens</t>
-  </si>
-  <si>
     <t>Crud: prijzen</t>
   </si>
   <si>
@@ -115,7 +109,16 @@
     <t>Encrypt/decrypt</t>
   </si>
   <si>
-    <t>Crud: pallets</t>
+    <t>Crud: pallets (id)</t>
+  </si>
+  <si>
+    <t>Crud: orders (date)(id)</t>
+  </si>
+  <si>
+    <t>Crud: vrachtwagens (date)(id)</t>
+  </si>
+  <si>
+    <t>Crud: rit (date)(id)</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -311,6 +320,7 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -625,17 +635,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="27.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" customWidth="1"/>
     <col min="3" max="4" width="3.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="4" customWidth="1"/>
     <col min="6" max="19" width="3.6640625" style="4" customWidth="1"/>
@@ -662,13 +672,13 @@
       <c r="G1" s="22">
         <v>43199</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="22">
         <v>43200</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="22">
         <v>43201</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="22">
         <v>43202</v>
       </c>
       <c r="K1" s="2">
@@ -1041,8 +1051,8 @@
       <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
+      <c r="A10" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -1080,8 +1090,8 @@
       <c r="AG10" s="6"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
+      <c r="A11" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -1119,8 +1129,8 @@
       <c r="AG11" s="6"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
+      <c r="A12" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -1158,10 +1168,12 @@
       <c r="AG12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1195,19 +1207,19 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1232,16 +1244,10 @@
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
+      <c r="A15" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -1252,12 +1258,12 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="17"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -1280,27 +1286,29 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="8"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1328,8 +1336,8 @@
       <c r="AM16" s="6"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
+      <c r="A17" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1338,9 +1346,9 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1372,7 +1380,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1382,7 +1390,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1415,7 +1423,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1426,10 +1434,10 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -1458,7 +1466,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1501,11 +1509,9 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1517,8 +1523,8 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -1546,9 +1552,9 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="6"/>
@@ -1563,9 +1569,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1585,13 +1591,13 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="6"/>
       <c r="AM22" s="6"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
@@ -1609,12 +1615,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="16"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -1630,12 +1636,15 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="6"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="6"/>
@@ -1653,11 +1662,11 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -1671,10 +1680,11 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>2</v>
@@ -1697,7 +1707,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -1715,7 +1725,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>2</v>
@@ -1739,8 +1749,8 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -1751,11 +1761,12 @@
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
-      <c r="AI26" s="11"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>7</v>
+      <c r="A27" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>2</v>
@@ -1795,7 +1806,7 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>2</v>
@@ -1820,8 +1831,8 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -1834,10 +1845,10 @@
       <c r="AI28" s="11"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="6"/>
@@ -1866,38 +1877,50 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AI29" s="11"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
+      <c r="A30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1920,10 +1943,38 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0584F5D-6DA9-40FE-A14F-20FA40A9A960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5CB57-6D7B-404D-8E7D-118A8AC9E11B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
       <c r="J1" s="22">
         <v>43202</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="22">
         <v>43203</v>
       </c>
       <c r="L1" s="18">
@@ -690,7 +690,7 @@
       <c r="M1" s="18">
         <v>43205</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="22">
         <v>43206</v>
       </c>
       <c r="O1" s="2">
@@ -1379,7 +1379,7 @@
       <c r="AM17" s="6"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5"/>
@@ -1422,7 +1422,7 @@
       <c r="AM18" s="6"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5"/>
@@ -1465,7 +1465,7 @@
       <c r="AM19" s="6"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5"/>
@@ -1508,7 +1508,7 @@
       <c r="AM20" s="6"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5"/>

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5CB57-6D7B-404D-8E7D-118A8AC9E11B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C67616-6202-48B3-928A-99D6184F4DA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Testen</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Crud: rit (date)(id)</t>
+  </si>
+  <si>
+    <t>Optimaliseer login</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -321,6 +324,7 @@
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -635,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,8 +1555,8 @@
       <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
+      <c r="A22" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>2</v>
@@ -1597,9 +1601,9 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="6"/>
@@ -1614,9 +1618,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -1636,13 +1640,13 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="6"/>
       <c r="AM23" s="6"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>2</v>
@@ -1660,12 +1664,12 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="16"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -1681,12 +1685,15 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="6"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="6"/>
@@ -1704,11 +1711,11 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
+      <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
@@ -1722,10 +1729,11 @@
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>2</v>
@@ -1748,7 +1756,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -1766,7 +1774,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>2</v>
@@ -1790,8 +1798,8 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -1802,11 +1810,12 @@
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
-      <c r="AI27" s="11"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>7</v>
+      <c r="A28" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>2</v>
@@ -1846,7 +1855,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>2</v>
@@ -1871,8 +1880,8 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
@@ -1885,10 +1894,10 @@
       <c r="AI29" s="11"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
@@ -1917,38 +1926,50 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AI30" s="11"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
+      <c r="A31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1971,10 +1992,38 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C67616-6202-48B3-928A-99D6184F4DA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05587A84-DFC0-4948-8FD9-46A165E1746A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,8 +642,10 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1385,7 @@
       <c r="AM17" s="6"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5"/>
@@ -1426,7 +1428,7 @@
       <c r="AM18" s="6"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5"/>
@@ -1512,7 +1514,7 @@
       <c r="AM20" s="6"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5"/>

--- a/Opdracht/Eigen documentatie/Planning.xlsx
+++ b/Opdracht/Eigen documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasa\Desktop\Turing_Machine\Java\dorb\Opdracht\Eigen documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05587A84-DFC0-4948-8FD9-46A165E1746A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C31FB2F-296B-41E9-9A3E-E7C7453397F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -324,7 +324,6 @@
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -642,10 +641,10 @@
   <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +698,10 @@
       <c r="N1" s="22">
         <v>43206</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="22">
         <v>43207</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="22">
         <v>43208</v>
       </c>
       <c r="Q1" s="2">
@@ -1557,7 +1556,7 @@
       <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="15" t="s">
